--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -20,9 +20,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市八里區下罟子段下罟子小段00660000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區大業段一小段02490000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段一小段02660000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段一小段01660000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段04830000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段03680000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段03700000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段04490000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段04500000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段四小段04510000地號</t>
+  </si>
+  <si>
+    <t>臺北市信義區祥和段三小段02210000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段四小段03090000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段一小段05210000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段一小段02460000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段一小段02460001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段一小段</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段05000000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段05010000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段05020000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段05070000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段05080000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區華中段二小段01910000地號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段04220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段04220001地號</t>
+  </si>
+  <si>
+    <t>3758.59</t>
+  </si>
+  <si>
+    <t>3582分之500</t>
+  </si>
+  <si>
+    <t>20分之17</t>
+  </si>
+  <si>
+    <t>10000分之247</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>86400分之4124</t>
+  </si>
+  <si>
+    <t>15分之2</t>
+  </si>
+  <si>
+    <t>300000分之13778</t>
+  </si>
+  <si>
+    <t>300000分之4540</t>
+  </si>
+  <si>
+    <t>375分之244</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>陳怡潔</t>
+  </si>
+  <si>
+    <t>慷怡潔</t>
+  </si>
+  <si>
+    <t>94年05月09日</t>
+  </si>
+  <si>
+    <t>97年05月12日</t>
+  </si>
+  <si>
+    <t>99年11月08日</t>
+  </si>
+  <si>
+    <t>102年05月01曰</t>
+  </si>
+  <si>
+    <t>99年08月17日</t>
+  </si>
+  <si>
+    <t>101年05月31曰</t>
+  </si>
+  <si>
+    <t>取得</t>
+  </si>
+  <si>
+    <t>102年05月27曰</t>
+  </si>
+  <si>
+    <t>101年07月24曰</t>
+  </si>
+  <si>
+    <t>101年07</t>
+  </si>
+  <si>
+    <t>101年11月12曰</t>
+  </si>
+  <si>
+    <t>101年11月12日</t>
+  </si>
+  <si>
+    <t>97年02月01日</t>
+  </si>
+  <si>
+    <t>102年03月28曰</t>
+  </si>
+  <si>
+    <t>102年05月03曰</t>
+  </si>
+  <si>
+    <t>102年05月03日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>cca=貝買</t>
+  </si>
+  <si>
+    <t>貝買</t>
+  </si>
+  <si>
+    <t>交換</t>
+  </si>
+  <si>
+    <t>Co3=貝買</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>6238658</t>
+  </si>
+  <si>
+    <t>2004500</t>
+  </si>
+  <si>
+    <t>17255445</t>
+  </si>
+  <si>
+    <t>1480480</t>
+  </si>
+  <si>
+    <t>4727147</t>
+  </si>
+  <si>
+    <t>1152000</t>
+  </si>
+  <si>
+    <t>40317226</t>
+  </si>
+  <si>
+    <t>2709000</t>
+  </si>
+  <si>
+    <t>1419000</t>
+  </si>
+  <si>
+    <t>15890998</t>
+  </si>
+  <si>
+    <t>4358496</t>
+  </si>
+  <si>
+    <t>2327500</t>
+  </si>
+  <si>
+    <t>3192000</t>
+  </si>
+  <si>
+    <t>8154508</t>
+  </si>
+  <si>
+    <t>28736000</t>
+  </si>
+  <si>
+    <t>13430635</t>
+  </si>
+  <si>
+    <t>10067330</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-06-20</t>
+  </si>
+  <si>
+    <t>tmp20f31</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,265 +331,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市八里區下罟子段下罟子 小段0066-0000地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區大業段一小段 0249-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段一小段 0266-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段一小段 0166-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0483-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0368-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0370-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0449-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0450-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段四小段 0451-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市信義區祥和段三小段 0221-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段四小段 0309-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段一小段 0521-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段 0246-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段 0246-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 0500-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 0501-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 0502-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 0507-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 0508-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區華中段二小段 0191-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 0422-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 0422-0001 地號</t>
-  </si>
-  <si>
-    <t>3,758.59</t>
-  </si>
-  <si>
-    <t>3582分之 500</t>
-  </si>
-  <si>
-    <t>20分之17</t>
-  </si>
-  <si>
-    <t>10000分之 247</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>86400分之 4124</t>
-  </si>
-  <si>
-    <t>15分之2</t>
-  </si>
-  <si>
-    <t>300000 分 之 13778</t>
-  </si>
-  <si>
-    <t>300000 分 之 4540</t>
-  </si>
-  <si>
-    <t>375分之 244</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>陳怡潔</t>
-  </si>
-  <si>
-    <t>慷怡潔</t>
-  </si>
-  <si>
-    <t>94年05月 09日</t>
-  </si>
-  <si>
-    <t>97年05月 12日</t>
-  </si>
-  <si>
-    <t>99年11月 08日</t>
-  </si>
-  <si>
-    <t>102 年 05 月01曰</t>
-  </si>
-  <si>
-    <t>99年08月 17日</t>
-  </si>
-  <si>
-    <t>101 年 05 月31曰</t>
-  </si>
-  <si>
-    <t>取得</t>
-  </si>
-  <si>
-    <t>102 年 05 月27曰</t>
-  </si>
-  <si>
-    <t>101 年 07 月24曰</t>
-  </si>
-  <si>
-    <t>101 年 07</t>
-  </si>
-  <si>
-    <t>101 年 11 月12曰</t>
-  </si>
-  <si>
-    <t>101 年 11 月12日</t>
-  </si>
-  <si>
-    <t>97年02月 01日</t>
-  </si>
-  <si>
-    <t>102 年 03 月28曰</t>
-  </si>
-  <si>
-    <t>102 年 05 月03曰</t>
-  </si>
-  <si>
-    <t>102 年 05 月03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>cca-=^ 貝買</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>交換</t>
-  </si>
-  <si>
-    <t>Co3-=^ 貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>6,238，658</t>
-  </si>
-  <si>
-    <t>2,004,500</t>
-  </si>
-  <si>
-    <t>17,255,445</t>
-  </si>
-  <si>
-    <t>1,480,480</t>
-  </si>
-  <si>
-    <t>4,727,147</t>
-  </si>
-  <si>
-    <t>1,152,000</t>
-  </si>
-  <si>
-    <t>40,317,226</t>
-  </si>
-  <si>
-    <t>2,709,000</t>
-  </si>
-  <si>
-    <t>1,419,000</t>
-  </si>
-  <si>
-    <t>15,890,998</t>
-  </si>
-  <si>
-    <t>4,358,496</t>
-  </si>
-  <si>
-    <t>2,327,500</t>
-  </si>
-  <si>
-    <t>3,192,000</t>
-  </si>
-  <si>
-    <t>8,154,508</t>
-  </si>
-  <si>
-    <t>28，736，000</t>
-  </si>
-  <si>
-    <t>13,430,635</t>
-  </si>
-  <si>
-    <t>10,067,330</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺北市士林區延平北路</t>
   </si>
   <si>
-    <t>臺北市中正區中正段一小段 00179-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段 00182-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 00126-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段 00127-000 建號</t>
+    <t>臺北市中正區中正段一小段00179000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段一小段00182000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段00126000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段00127000建號</t>
   </si>
   <si>
     <t>臺北市萬華區環河南路</t>
   </si>
   <si>
-    <t>臺北市北投區行義段一小段 10727-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 00354-000 建號</t>
+    <t>臺北市北投區行義段一小段10727000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段00354000建號</t>
   </si>
   <si>
     <t>11分之3</t>
@@ -313,22 +364,22 @@
     <t>陳恰潔</t>
   </si>
   <si>
-    <t>99年12月 06日</t>
-  </si>
-  <si>
-    <t>101 年 07 月24日</t>
-  </si>
-  <si>
-    <t>97年04月 09日</t>
-  </si>
-  <si>
-    <t>DQ3-=S 貝買</t>
-  </si>
-  <si>
-    <t>COO-^^ 貝買</t>
-  </si>
-  <si>
-    <t>033-=^ 貝買</t>
+    <t>99年12月06日</t>
+  </si>
+  <si>
+    <t>101年07月24日</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>DQ3=S貝買</t>
+  </si>
+  <si>
+    <t>COO貝買</t>
+  </si>
+  <si>
+    <t>033=貝買</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -358,13 +409,13 @@
     <t>臺灣銀行淡水分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行南西分 行 _</t>
+    <t>合作金庫商業銀行南西分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行建成分 行</t>
+    <t>國泰世華商業銀行建成分行</t>
   </si>
   <si>
     <t>臺灣土地銀行國外部</t>
@@ -373,7 +424,7 @@
     <t>國泰世華商業銀行國外部</t>
   </si>
   <si>
-    <t>曰盛國際商業銀行延平分 行</t>
+    <t>曰盛國際商業銀行延平分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -397,13 +448,13 @@
     <t>陳◦霓</t>
   </si>
   <si>
-    <t>4,117.15</t>
-  </si>
-  <si>
-    <t>20,220,316</t>
-  </si>
-  <si>
-    <t>2,445,408</t>
+    <t>4117.15</t>
+  </si>
+  <si>
+    <t>20220316</t>
+  </si>
+  <si>
+    <t>2445408</t>
   </si>
   <si>
     <t>名</t>
@@ -424,22 +475,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及多</t>
-  </si>
-  <si>
-    <t>財 產 種 類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -466,13 +517,13 @@
     <t>借款</t>
   </si>
   <si>
-    <t>陳怡瑋 臺北市士林區延平北路</t>
-  </si>
-  <si>
-    <t>168,010,000</t>
-  </si>
-  <si>
-    <t>99年03月 30日</t>
+    <t>陳怡瑋臺北市士林區延平北路</t>
+  </si>
+  <si>
+    <t>168010000</t>
+  </si>
+  <si>
+    <t>99年03月30日</t>
   </si>
   <si>
     <t>借貸</t>
@@ -496,28 +547,28 @@
     <t>臺灣銀行淡水</t>
   </si>
   <si>
-    <t>21，600，000</t>
-  </si>
-  <si>
-    <t>56，300，000</t>
-  </si>
-  <si>
-    <t>99年11月 15日</t>
-  </si>
-  <si>
-    <t>101年10月 31曰</t>
-  </si>
-  <si>
-    <t>102年04月 01日</t>
-  </si>
-  <si>
-    <t>購置房地 (行義路）</t>
-  </si>
-  <si>
-    <t>購置房地 (杭州南路）</t>
-  </si>
-  <si>
-    <t>購置房地 (昌吉街1 號）</t>
+    <t>21600000</t>
+  </si>
+  <si>
+    <t>56300000</t>
+  </si>
+  <si>
+    <t>99年11月15日</t>
+  </si>
+  <si>
+    <t>101年10月31曰</t>
+  </si>
+  <si>
+    <t>102年04月01日</t>
+  </si>
+  <si>
+    <t>購置房地(行義路）</t>
+  </si>
+  <si>
+    <t>購置房地(杭州南路）</t>
+  </si>
+  <si>
+    <t>購置房地(昌吉街1號）</t>
   </si>
   <si>
     <t>投資人</t>
@@ -538,22 +589,22 @@
     <t>鑫明投資有限公司</t>
   </si>
   <si>
-    <t>臺北市大同區長安西路116 號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區貴陽街二段 238號</t>
-  </si>
-  <si>
-    <t>14’990，000</t>
-  </si>
-  <si>
-    <t>1’000，000</t>
-  </si>
-  <si>
-    <t>96年08月 15曰</t>
-  </si>
-  <si>
-    <t>101年12月 11曰</t>
+    <t>臺北市大同區長安西路116號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區貴陽街二段238號</t>
+  </si>
+  <si>
+    <t>14990000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>96年08月15曰</t>
+  </si>
+  <si>
+    <t>101年12月11曰</t>
   </si>
   <si>
     <t>合資</t>
@@ -915,13 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,629 +994,1154 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>11836</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>3564</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>364</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
         <v>945000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2">
         <v>567000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>615</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>376</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>449</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>232</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1583,25 +2159,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1609,22 +2185,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <v>28.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>12055</v>
@@ -1635,22 +2211,22 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>137.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="H3" s="2">
         <v>245800</v>
@@ -1661,22 +2237,22 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>105.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2">
         <v>129500</v>
@@ -1687,22 +2263,22 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>279.79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2">
         <v>117500</v>
@@ -1713,22 +2289,22 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
         <v>30.71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>18250</v>
@@ -1739,25 +2315,25 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2">
         <v>220.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1765,22 +2341,22 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
         <v>310.62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>941900</v>
@@ -1791,22 +2367,22 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2">
         <v>872.61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2">
         <v>431500</v>
@@ -1827,22 +2403,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1850,20 +2426,20 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1871,16 +2447,16 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1892,16 +2468,16 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1913,16 +2489,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1934,16 +2510,16 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1955,16 +2531,16 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1976,16 +2552,16 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -1999,19 +2575,19 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2">
         <v>123515</v>
@@ -2022,20 +2598,20 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2053,22 +2629,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2076,14 +2652,14 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2093,22 +2669,22 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2126,22 +2702,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2149,22 +2725,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2182,22 +2758,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2205,22 +2781,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2228,22 +2804,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2">
         <v>193462</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2251,22 +2827,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2284,22 +2860,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2307,22 +2883,22 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2330,22 +2906,22 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市八里區下罟子段下罟子小段00660000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市北投區大業段一小段02490000地號</t>
@@ -136,12 +139,6 @@
     <t>臺北市大同區大同段一小段04220001地號</t>
   </si>
   <si>
-    <t>3758.59</t>
-  </si>
-  <si>
-    <t>3582分之500</t>
-  </si>
-  <si>
     <t>20分之17</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>慷怡潔</t>
   </si>
   <si>
-    <t>94年05月09日</t>
-  </si>
-  <si>
     <t>97年05月12日</t>
   </si>
   <si>
@@ -310,30 +304,15 @@
     <t>tmp20f31</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市士林區延平北路</t>
   </si>
   <si>
+    <t>11分之3</t>
+  </si>
+  <si>
+    <t>99年12月06日</t>
+  </si>
+  <si>
     <t>臺北市中正區中正段一小段00179000建號</t>
   </si>
   <si>
@@ -355,18 +334,12 @@
     <t>臺北市大同區大同段一小段00354000建號</t>
   </si>
   <si>
-    <t>11分之3</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
     <t>陳恰潔</t>
   </si>
   <si>
-    <t>99年12月06日</t>
-  </si>
-  <si>
     <t>101年07月24日</t>
   </si>
   <si>
@@ -382,138 +355,90 @@
     <t>033=貝買</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>聯邦商業銀行營業部</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>20220316</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行新莊分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行淡水分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南西分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行建成分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行國外部</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行國外部</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行延平分行</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>陳◦霓</t>
+  </si>
+  <si>
+    <t>4117.15</t>
+  </si>
+  <si>
+    <t>2445408</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及多</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行營業部</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新莊分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行淡水分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南西分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行建成分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行國外部</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行國外部</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行延平分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>陳◦霓</t>
-  </si>
-  <si>
-    <t>4117.15</t>
-  </si>
-  <si>
-    <t>20220316</t>
-  </si>
-  <si>
-    <t>2445408</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
@@ -529,85 +454,67 @@
     <t>借貸</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>房地貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行新莊</t>
   </si>
   <si>
+    <t>21600000</t>
+  </si>
+  <si>
+    <t>99年11月15日</t>
+  </si>
+  <si>
+    <t>購置房地(行義路）</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行敦南</t>
   </si>
   <si>
     <t>臺灣銀行淡水</t>
   </si>
   <si>
-    <t>21600000</t>
-  </si>
-  <si>
     <t>56300000</t>
   </si>
   <si>
-    <t>99年11月15日</t>
-  </si>
-  <si>
     <t>101年10月31曰</t>
   </si>
   <si>
     <t>102年04月01日</t>
   </si>
   <si>
-    <t>購置房地(行義路）</t>
-  </si>
-  <si>
     <t>購置房地(杭州南路）</t>
   </si>
   <si>
     <t>購置房地(昌吉街1號）</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>三傑投資事業(有)公司</t>
   </si>
   <si>
+    <t>臺北市大同區長安西路116號</t>
+  </si>
+  <si>
+    <t>14990000</t>
+  </si>
+  <si>
+    <t>96年08月15曰</t>
+  </si>
+  <si>
+    <t>合資</t>
+  </si>
+  <si>
     <t>鑫明投資有限公司</t>
   </si>
   <si>
-    <t>臺北市大同區長安西路116號</t>
-  </si>
-  <si>
     <t>臺北市萬華區貴陽街二段238號</t>
   </si>
   <si>
-    <t>14990000</t>
-  </si>
-  <si>
     <t>1000000</t>
   </si>
   <si>
-    <t>96年08月15曰</t>
-  </si>
-  <si>
     <t>101年12月11曰</t>
-  </si>
-  <si>
-    <t>合資</t>
   </si>
 </sst>
 </file>
@@ -966,13 +873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,580 +922,658 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>11836</v>
+        <v>508</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2">
         <v>1804</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>431.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>508</v>
+        <v>3758.59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2">
         <v>1804</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0247</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>92.837173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2">
         <v>1804</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17.5833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>211</v>
+        <v>3564</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2">
         <v>1804</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0477314814814815</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>170.115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>3564</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2">
         <v>1804</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>114</v>
+        <v>364</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2">
         <v>1804</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>48.5333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>364</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2">
         <v>1804</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="H9" s="2">
+        <v>945000</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="2">
         <v>1804</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
-        <v>945000</v>
+        <v>567000</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2">
         <v>1804</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>63</v>
+        <v>1136</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="2">
-        <v>567000</v>
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2">
         <v>1804</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0459266666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>52.1726933333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1136</v>
+        <v>615</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="2">
         <v>1804</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0151333333333333</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>9.307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>615</v>
+        <v>235</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="2">
         <v>1804</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.650666666666667</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>152.906666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>47</v>
@@ -1597,551 +1582,570 @@
         <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="2">
         <v>1804</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2">
         <v>1804</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="2">
         <v>1804</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2">
         <v>1804</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="2">
         <v>1804</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="2">
         <v>1804</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M20" s="2">
         <v>1804</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>118</v>
+        <v>376</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="2">
         <v>1804</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M22" s="2">
         <v>1804</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="2">
         <v>1804</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>77.3333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M24" s="2">
         <v>1804</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2">
-        <v>169</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1804</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O25" s="2">
-        <v>39</v>
+      <c r="P24" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>56.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2159,232 +2163,206 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="H1" s="1">
+        <v>12055</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
-        <v>28.6</v>
+        <v>137.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="H2" s="2">
-        <v>12055</v>
+        <v>245800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2">
+        <v>105.49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2">
-        <v>137.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2">
-        <v>245800</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
-        <v>105.49</v>
+        <v>279.79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2">
-        <v>129500</v>
+        <v>117500</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.71</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2">
-        <v>279.79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2">
-        <v>117500</v>
+        <v>18250</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2">
+        <v>220.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="2">
-        <v>30.71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2">
-        <v>18250</v>
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
-        <v>220.1</v>
+        <v>310.62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="H7" s="2">
+        <v>941900</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2">
-        <v>310.62</v>
+        <v>872.61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2">
-        <v>941900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2">
-        <v>872.61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="2">
         <v>431500</v>
       </c>
     </row>
@@ -2395,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2403,215 +2381,192 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
+      <c r="G2" s="2">
+        <v>109162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>109162</v>
+        <v>663074</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>663074</v>
+        <v>96980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>96980</v>
+        <v>406745</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>406745</v>
+        <v>593732</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
       <c r="G7" s="2">
-        <v>593732</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G8" s="2">
-        <v>3000</v>
+        <v>123515</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="2">
-        <v>123515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2620,6 +2575,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2629,62 +2667,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="2">
+        <v>193462</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2702,226 +2746,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="2">
-        <v>193462</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>132</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>133</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市八里區下罟子段下罟子小段00660000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區大業段一小段02490000地號</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>臺北市大同區大同段一小段04220001地號</t>
   </si>
   <si>
+    <t>3582分之500</t>
+  </si>
+  <si>
     <t>20分之17</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>慷怡潔</t>
   </si>
   <si>
+    <t>94年05月09日</t>
+  </si>
+  <si>
     <t>97年05月12日</t>
   </si>
   <si>
@@ -307,37 +316,37 @@
     <t>臺北市士林區延平北路</t>
   </si>
   <si>
+    <t>臺北市中正區中正段一小段00179000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段一小段00182000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段00126000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區直興段二小段00127000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區環河南路</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段一小段10727000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段00354000建號</t>
+  </si>
+  <si>
     <t>11分之3</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>陳恰潔</t>
+  </si>
+  <si>
     <t>99年12月06日</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段00179000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段一小段00182000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段00126000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區直興段二小段00127000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區環河南路</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段一小段10727000建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段00354000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>陳恰潔</t>
   </si>
   <si>
     <t>101年07月24日</t>
@@ -873,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,1220 +940,1273 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>508</v>
+        <v>11836</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2">
         <v>1804</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.85</v>
+        <v>0.139586823003908</v>
       </c>
       <c r="Q2" s="2">
-        <v>431.8</v>
+        <v>1652.14963707426</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3758.59</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2">
         <v>1804</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0247</v>
+        <v>0.85</v>
       </c>
       <c r="Q3" s="2">
-        <v>92.837173</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>211</v>
+        <v>3758.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2">
         <v>1804</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.0247</v>
       </c>
       <c r="Q4" s="2">
-        <v>17.5833333333333</v>
+        <v>92.837173</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3564</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2">
         <v>1804</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0477314814814815</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>170.115</v>
+        <v>17.5833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>114</v>
+        <v>3564</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2">
         <v>1804</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.133333333333333</v>
+        <v>0.0477314814814815</v>
       </c>
       <c r="Q6" s="2">
-        <v>15.2</v>
+        <v>170.115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2">
         <v>1804</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.133333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>48.5333333333333</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2">
         <v>1804</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>10.6666666666667</v>
+        <v>48.5333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2">
-        <v>945000</v>
+        <v>70</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2">
         <v>1804</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>8.75</v>
+        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
-        <v>567000</v>
+        <v>945000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" s="2">
         <v>1804</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q10" s="2">
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1136</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="H11" s="2">
+        <v>567000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2">
         <v>1804</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0459266666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>52.1726933333333</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>615</v>
+        <v>1136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2">
         <v>1804</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0151333333333333</v>
+        <v>0.0459266666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>9.307</v>
+        <v>52.1726933333333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>235</v>
+        <v>615</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2">
         <v>1804</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.650666666666667</v>
+        <v>0.0151333333333333</v>
       </c>
       <c r="Q13" s="2">
-        <v>152.906666666667</v>
+        <v>9.307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2">
         <v>1804</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.5</v>
+        <v>0.650666666666667</v>
       </c>
       <c r="Q14" s="2">
-        <v>10.5</v>
+        <v>152.906666666667</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2">
         <v>1804</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.5</v>
       </c>
       <c r="Q15" s="2">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2">
         <v>1804</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.5</v>
       </c>
       <c r="Q16" s="2">
-        <v>53.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2">
         <v>1804</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
         <v>0.5</v>
       </c>
       <c r="Q17" s="2">
-        <v>32</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2">
         <v>1804</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>0.5</v>
       </c>
       <c r="Q18" s="2">
-        <v>17.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M19" s="2">
         <v>1804</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>0.5</v>
       </c>
       <c r="Q19" s="2">
-        <v>24</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M20" s="2">
         <v>1804</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>0.5</v>
       </c>
       <c r="Q20" s="2">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M21" s="2">
         <v>1804</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
         <v>0.5</v>
       </c>
       <c r="Q21" s="2">
-        <v>188</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>449</v>
+        <v>376</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M22" s="2">
         <v>1804</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
         <v>0.5</v>
       </c>
       <c r="Q22" s="2">
-        <v>224.5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M23" s="2">
         <v>1804</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" s="2">
-        <v>77.3333333333333</v>
+        <v>224.5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M24" s="2">
         <v>1804</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q24" s="2">
+        <v>77.3333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2">
+        <v>169</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q25" s="2">
         <v>56.3333333333333</v>
       </c>
     </row>
@@ -2155,215 +2217,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1">
-        <v>28.6</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1">
-        <v>12055</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="2">
-        <v>137.61</v>
+        <v>28.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2">
-        <v>245800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12055</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="2">
-        <v>105.49</v>
+        <v>137.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2">
-        <v>129500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>245800</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>137.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="2">
-        <v>279.79</v>
+        <v>105.49</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="2">
+        <v>129500</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="2">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>105.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="2">
-        <v>117500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>30.71</v>
+        <v>279.79</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="2">
+        <v>117500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="2">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="2">
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>139.895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="2">
-        <v>220.1</v>
+        <v>30.71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18250</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="2">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15.355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="2">
-        <v>310.62</v>
+        <v>220.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="2">
         <v>49</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2">
-        <v>941900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>110.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="2">
+        <v>310.62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2">
+        <v>941900</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="2">
+        <v>50</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>310.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2">
         <v>872.61</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2">
         <v>431500</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1804</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="2">
+        <v>51</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>290.87</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2381,192 +2712,213 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>109162</v>
+      <c r="G2" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>663074</v>
+        <v>109162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>96980</v>
+        <v>663074</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>406745</v>
+        <v>96980</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>593732</v>
+        <v>406745</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3000</v>
+        <v>593732</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>123515</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="2">
+        <v>123515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>83</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
+      <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2575,6 +2927,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2584,72 +3003,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2658,6 +3050,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="2">
+        <v>193462</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2667,124 +3161,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="2">
-        <v>193462</v>
+        <v>160</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>033=貝買</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>聯邦商業銀行營業部</t>
@@ -2299,7 +2302,7 @@
         <v>12055</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>94</v>
@@ -2352,7 +2355,7 @@
         <v>245800</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>94</v>
@@ -2405,7 +2408,7 @@
         <v>129500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>94</v>
@@ -2458,7 +2461,7 @@
         <v>117500</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>94</v>
@@ -2511,7 +2514,7 @@
         <v>18250</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>94</v>
@@ -2564,7 +2567,7 @@
         <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>94</v>
@@ -2617,7 +2620,7 @@
         <v>941900</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>94</v>
@@ -2670,7 +2673,7 @@
         <v>431500</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>94</v>
@@ -2712,20 +2715,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2733,20 +2736,20 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2754,13 +2757,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
@@ -2775,13 +2778,13 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
@@ -2796,13 +2799,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -2817,13 +2820,13 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
@@ -2838,13 +2841,13 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>51</v>
@@ -2859,13 +2862,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>51</v>
@@ -2882,19 +2885,19 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9" s="2">
         <v>123515</v>
@@ -2905,20 +2908,20 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2936,14 +2939,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2953,16 +2956,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2970,22 +2973,22 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3003,22 +3006,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3026,22 +3029,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3059,22 +3062,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3082,22 +3085,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3105,22 +3108,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
         <v>193462</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3128,22 +3131,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3164,19 +3167,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3187,19 +3190,19 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3210,19 +3213,19 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="170">
   <si>
     <t>name</t>
   </si>
@@ -367,61 +367,64 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>聯邦商業銀行營業部</t>
   </si>
   <si>
+    <t>臺灣土地銀行新莊分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行淡水分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南西分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行建成分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行國外部</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行國外部</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行延平分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>20220316</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新莊分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行淡水分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南西分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行建成分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行國外部</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行國外部</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行延平分行</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>陳◦霓</t>
   </si>
   <si>
-    <t>4117.15</t>
-  </si>
-  <si>
-    <t>2445408</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字晝及多</t>
@@ -2707,13 +2710,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2724,35 +2727,75 @@
         <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>20220316</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -2760,20 +2803,40 @@
         <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>109162</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>77</v>
       </c>
@@ -2781,20 +2844,40 @@
         <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>663074</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>78</v>
       </c>
@@ -2802,20 +2885,40 @@
         <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>96980</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>79</v>
       </c>
@@ -2823,20 +2926,40 @@
         <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>406745</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>80</v>
       </c>
@@ -2844,20 +2967,40 @@
         <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>593732</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>81</v>
       </c>
@@ -2865,22 +3008,40 @@
         <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>82</v>
       </c>
@@ -2888,22 +3049,40 @@
         <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>123515</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>83</v>
       </c>
@@ -2911,17 +3090,37 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2445408</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1804</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2939,14 +3138,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2956,16 +3155,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2973,22 +3172,22 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3006,22 +3205,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3029,22 +3228,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3062,22 +3261,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3085,22 +3284,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3108,22 +3307,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
         <v>193462</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3131,22 +3330,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3167,19 +3366,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3190,19 +3389,19 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3213,19 +3412,19 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -10,17 +10,16 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="其他有價證券" sheetId="4" r:id="rId4"/>
-    <sheet name="債權" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債權" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -425,33 +424,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>借款</t>
@@ -3130,7 +3102,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3141,53 +3113,42 @@
         <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>109</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3196,62 +3157,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3261,22 +3166,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3284,22 +3189,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3307,22 +3212,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2">
         <v>193462</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3330,22 +3235,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +3258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3366,19 +3271,19 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3389,19 +3294,19 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3412,19 +3317,19 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
+++ b/legislator/property/output/normal/陳怡潔_2013-06-20_財產申報表_tmp20f31.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -426,82 +426,88 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
     <t>陳怡瑋臺北市士林區延平北路</t>
   </si>
   <si>
-    <t>168010000</t>
-  </si>
-  <si>
     <t>99年03月30日</t>
   </si>
   <si>
     <t>借貸</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>房地貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行新莊</t>
   </si>
   <si>
-    <t>21600000</t>
+    <t>合作金庫商業銀行敦南</t>
+  </si>
+  <si>
+    <t>臺灣銀行淡水</t>
   </si>
   <si>
     <t>99年11月15日</t>
   </si>
   <si>
+    <t>101年10月31曰</t>
+  </si>
+  <si>
+    <t>102年04月01日</t>
+  </si>
+  <si>
     <t>購置房地(行義路）</t>
   </si>
   <si>
-    <t>合作金庫商業銀行敦南</t>
-  </si>
-  <si>
-    <t>臺灣銀行淡水</t>
-  </si>
-  <si>
-    <t>56300000</t>
-  </si>
-  <si>
-    <t>101年10月31曰</t>
-  </si>
-  <si>
-    <t>102年04月01日</t>
-  </si>
-  <si>
     <t>購置房地(杭州南路）</t>
   </si>
   <si>
     <t>購置房地(昌吉街1號）</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>三傑投資事業(有)公司</t>
   </si>
   <si>
+    <t>鑫明投資有限公司</t>
+  </si>
+  <si>
     <t>臺北市大同區長安西路116號</t>
   </si>
   <si>
-    <t>14990000</t>
+    <t>臺北市萬華區貴陽街二段238號</t>
   </si>
   <si>
     <t>96年08月15曰</t>
   </si>
   <si>
+    <t>101年12月11曰</t>
+  </si>
+  <si>
     <t>合資</t>
   </si>
   <si>
-    <t>鑫明投資有限公司</t>
-  </si>
-  <si>
-    <t>臺北市萬華區貴陽街二段238號</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>101年12月11曰</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3102,53 +3108,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E2" s="2">
+        <v>168010000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3158,99 +3206,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2">
         <v>193462</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="E4" s="2">
+        <v>56300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3260,33 +3392,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>132</v>
       </c>
@@ -3294,22 +3447,43 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>133</v>
       </c>
@@ -3317,19 +3491,40 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>159</v>
+      <c r="E3" s="2">
+        <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
